--- a/src/main/webapp/excel/upload_interface_template.xlsx
+++ b/src/main/webapp/excel/upload_interface_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="导入接口信息页" sheetId="1" r:id="rId1"/>
@@ -15,90 +15,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
   <si>
     <t>接口名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>接口类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中文名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模拟请求地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实请求地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>接口状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>入参报文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建默认报文名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建默认场景名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>报文格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HTTP</t>
   </si>
   <si>
-    <t>GBQ_ChargeInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CX</t>
-  </si>
-  <si>
-    <t>用户话费信息查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-"ROOT":{
-"ROUTE_NO":"13505501356",
-"CHANNEL_TYPE":"31a",
-"PHONE_NO":"13505501356",
-"LOGIN_NO":"Y18600TCH"
-}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>http://localhost:8080/MockService/rest/QryDataFlow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常报文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -122,7 +72,7 @@
       </rPr>
       <t>CX-查询类   SL-办理类</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -146,20 +96,438 @@
       </rPr>
       <t>0-可用  1-不可用</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>新建默认报文名称(可留空)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建默认场景名称(可留空)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用报文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sUserPrcQry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QryDataFlow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swtacct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUAPay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sPubPhonePre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBQ_ChargeInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jf000013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sGetFee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sRelChk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sBscUsrInfoQry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "ROOT": {
+    "FUNC_FLAG": "F",
+    "SVCNUM": "18226620800",
+    "CHANNEL_TYPE": "",
+    "PROD_PRC_ID": "",
+    "CHANNEL": "106",
+    "QRY_TYPE": ""
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "ROOT": {
+    "LOGIN_NO": "A0AAA0461",
+    "ModuleID": "GetPayAcctByMsisdn",
+    "CHANNEL_TYPE": "1 01",
+    "PHONE_NO": "13856027399"
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "ROOT": {
+    "CHANNEL_TYPE": "101",
+    "ACCT_ID": "",
+    "SVCNUM": "13855736621",
+    "INFLAG": "2",
+    "LOGIN_NO": "L00000SYS",
+    "ACCT_TYPE": ""
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "ROOT": {
+    "OPR_INFO": {
+      "LOGIN_NO": "L0A020ZZ1",
+      "AUTHEN_CODE": "",
+      "OP_CODE": "1000",
+      "REGION_ID": "21",
+      "CONTACT_ID": "-1",
+      "AUTHEN_NAME": "",
+      "GROUP_ID": "121000575",
+      "CHANNEL_TYPE": "21L",
+      "IP_ADDRESS": "10.153.238.211",
+      "LOGIN_PWD": "fb0bdec823cf4cdb"
+    },
+    "COMMON_INFO": {
+      "SER_NAME": "0",
+      "APP_ID": "",
+      "TRACE_ID": "11*20170701160728*4315*L0A020ZZ1*671391",
+      "FROM_SYS": "",
+      "SRC_PORT": "",
+      "DEST_IP": "",
+      "ROUND_AUDIT": "",
+      "DEST_PORT": "",
+      "CALL_ID": "ffb5b46d-25c0-42b0-b5cb-af76bfc98245",
+      "BACK2": "",
+      "APP_NAME": "",
+      "SESSION_ID": "",
+      "PROVINCE_GROUP": "10017"
+    },
+    "REQUEST_INFO": {
+      "BUSI_INFO_LIST": {
+        "BUSI_INFO": {
+          "OBJECT_GROUP": "121000575",
+          "MASTER_SERV_ID": "1001",
+          "OP_NOTE": "",
+          "RES_KIND": "H",
+          "RES_LIST": {
+            "RES_INFO": {
+              "PHONE_NO": "",
+              "SIM_NO": "898600E1125492142447",
+              "RES_OPR": "0"
+            }
+          }
+        }
+      },
+      "OPR_INFO": {
+        "GROUP_ID": "121000575",
+        "LOGIN_NO": "L0A020ZZ1",
+        "AUTHEN_CODE": "",
+        "LOGIN_PWD": "fb0bdec823cf4cdb",
+        "IP_ADDRESS": "10.153.238.211",
+        "CONTACT_ID": "-1",
+        "OP_CODE": "1000",
+        "AUTHEN_NAME": "",
+        "REGION_ID": "21",
+        "CHANNEL_TYPE": "21L"
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "ROOT": {
+    "PHONE_NO": "13855731145",
+    "CHANNEL_TYPE": "101",
+    "LOGIN_NO": "L00000B28",
+    "ROUTE_NO": "13855731145"
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "ROOT": {
+    "NeedUserTotalMonthFeeSum": "1",
+    "MainSvcType": "0",
+    "NeedInstantFee": "1",
+    "NeedUserBaseMonthFeeSum": "1",
+    "BlackType": "0",
+    "QueryType": "0",
+    "SvcNum": "21310017911320",
+    "OPTRID": "L00000B28"
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "ROOT": {
+    "OPR_INFO": {
+      "AUTHEN_CODE": "",
+      "CHANNEL_TYPE": "431",
+      "IP_ADDRESS": "10.153.238.224",
+      "AUTHEN_NAME": "服务密码",
+      "LOGIN_NO": "LZZZZZCTC",
+      "OP_CODE": "1104",
+      "CONTACT_ID": "1117071050000001471559935",
+      "REGION_ID": "21",
+      "LOGIN_PWD": "fb0bdec823cf4cdb",
+      "GROUP_ID": "121000000"
+    },
+    "ROTUE_PHONE_NO": "13955776688",
+    "ORDER_LINE_LIST": {
+      "ORDER_LINE_INFO": [
+        {
+          "OP_CODE": "1104",
+          "MASTER_SERV_ID": "1001",
+          "ORDER_LINE_SEQ": 1,
+          "PRODPRC_LIST": {
+            "PRODPRC": [
+              {
+                "EXP_DATE": "20170731235959",
+                "ORDER_STATUS": "3",
+                "PROD_PRCID": "PIBP0041",
+                "EFF_DATE": "20070726101056"
+              }
+            ]
+          },
+          "USESCORE": "0",
+          "LOGIN_NO": "LZZZZZCTC",
+          "EXCHANGE": "0",
+          "PHONE_NO": "13955776688",
+          "ADJUST_TYPE": "1",
+          "BUY_RES_LIST": {}
+        }
+      ]
+    },
+    "COMMON_INFO": {
+      "CALL_ID": "da0ed2e5-7ffb-4f47-947e-fedabd7c7d37",
+      "PROVINCE_GROUP": "10017",
+      "SESSION_ID": "",
+      "SRC_PORT": "",
+      "DEST_IP": "",
+      "TRACE_ID": "11*20170710202512*1496*LZZZZZCTC*942349",
+      "APP_NAME": "",
+      "FROM_SYS": "",
+      "ROUND_AUDIT": "",
+      "BACK2": "",
+      "APP_ID": "",
+      "DEST_PORT": "",
+      "SER_NAME": "0"
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "ROOT": {
+    "REQUEST_INFO": {
+      "BUSI_INFO_LIST": {
+        "BUSI_INFO": {
+          "GROUP_ID": "121000000",
+          "CUST_ID": "21000000134403",
+          "SEL_BUSI_LIST": "",
+          "ACTION": "N",
+          "OP_TYPE": "2",
+          "CHOOSE_FLAG": "N",
+          "ID_ICCID": "",
+          "EXP_DATE": "20170809235959",
+          "FUN_EXP_DATE": "",
+          "EFF_DATE": "20081210183837",
+          "ID_TYPE": "",
+          "PARPROD_PRCID": "",
+          "BILL_DAY": "",
+          "TOTAL_FLAG": "",
+          "MODIFY_MAIN_PRC": "N",
+          "PROD_ID": "SP001482",
+          "BAND_ID": "",
+          "ID_NO": "21061222994522",
+          "POWER_CODE": "19",
+          "PROD_PRCID": "PISP001482",
+          "OP_CODE": "1104",
+          "REORDER_FLAG": ""
+        }
+      },
+      "OPR_INFO": {
+        "CONTACT_ID": "-1",
+        "AUTHEN_CODE": "4",
+        "IP_ADDRESS": "10.153.238.224",
+        "REGION_ID": "21",
+        "GROUP_ID": "121000000",
+        "OP_CODE": "1104",
+        "LOGIN_NO": "L00000SYS",
+        "CHANNEL_TYPE": "431",
+        "LOGIN_PWD": "fb0bdec823cf4cdb",
+        "AUTHEN_NAME": "服务密码"
+      }
+    },
+    "COMMON_INFO": {
+      "SER_NAME": "",
+      "PROVINCE_GROUP": "10017",
+      "TRACE_ID": "",
+      "ROUND_AUDIT": "Y",
+      "DEST_PORT": "11001",
+      "APP_ID": "2000",
+      "DEST_IP": "152.55.229.200",
+      "BAK2": "",
+      "SRC_PORT": "51674",
+      "CALL_ID": "",
+      "FROM_SYS": "BOSS",
+      "SESSION_ID": "hmUcLBds3rO2Y8Y8u2zr8J1mfiOp6nuBo9MWuz2RkLB4QJ7Oz51n!-851974262!1499416237932",
+      "APP_NAME": "NGBOSS"
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "ROOT": {
+    "COMMON_INFO": {},
+    "REQUEST_INFO": {
+      "BUSI_INFO_LIST": {
+        "BUSI_INFO": {
+          "MASTER_SERV_ID": "1001",
+          "ID_NO": 21060100030717,
+          "PHONE_NO": "13866691897"
+        }
+      },
+      "OPR_INFO": {
+        "LOGIN_NO": "L0A020H01"
+      }
+    }
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "ROOT": {
+    "REQUEST_INFO": {
+      "BUSI_INFO_LIST": {
+        "BUSI_INFO": {
+          "ID_NO": "21000117089809"
+        }
+      }
+    }
+  }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://152.55.249.46:52000/esbWS/rest/sUserPrcQry</t>
+  </si>
+  <si>
+    <t>http://152.55.249.46:52001/esbWS/rest/sUserPrcQry</t>
+  </si>
+  <si>
+    <t>http://152.55.249.46:52002/esbWS/rest/sUserPrcQry</t>
+  </si>
+  <si>
+    <t>http://152.55.249.46:52003/esbWS/rest/sUserPrcQry</t>
+  </si>
+  <si>
+    <t>http://152.55.249.46:52004/esbWS/rest/sUserPrcQry</t>
+  </si>
+  <si>
+    <t>http://152.55.249.46:52005/esbWS/rest/sUserPrcQry</t>
+  </si>
+  <si>
+    <t>http://152.55.249.46:52006/esbWS/rest/sUserPrcQry</t>
+  </si>
+  <si>
+    <t>http://152.55.249.46:52007/esbWS/rest/sUserPrcQry</t>
+  </si>
+  <si>
+    <t>http://152.55.249.46:52008/esbWS/rest/sUserPrcQry</t>
+  </si>
+  <si>
+    <t>http://152.55.249.46:52009/esbWS/rest/sUserPrcQry</t>
+  </si>
+  <si>
+    <t>模拟请求地址(可留空)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实请求地址(必填)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JAVA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ESB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -211,8 +579,153 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,8 +738,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -249,28 +935,314 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="45">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="42"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="44"/>
+    <cellStyle name="好" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="9" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="注释 2" xfId="43"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -562,23 +1534,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="47.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="11" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="27.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -592,85 +1565,434 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>17</v>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="27.75" customHeight="1"/>
+    <row r="6" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2 B32:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32:B1048576 B2:B11">
       <formula1>"SL,CX"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2 C32:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32:C1048576 C2:C11">
       <formula1>"HTTP,Socket,WebService"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G2 G32:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G32:G1048576 G2:G10">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I2 I32:I1048576">
-      <formula1>"json,xml,url,fixed,opt"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+      <formula1>"JSON,XML,URL,FIXED,OPT"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://152.55.247.46:52000/esbWS/rest/sUserPrcQry"/>
+    <hyperlink ref="E3:E11" r:id="rId2" display="http://152.55.247.46:52000/esbWS/rest/sUserPrcQry"/>
+    <hyperlink ref="F2" r:id="rId3" display="http://152.55.247.46:52000/esbWS/rest/sUserPrcQry"/>
+    <hyperlink ref="F3:F11" r:id="rId4" display="http://152.55.247.46:52000/esbWS/rest/sUserPrcQry"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -678,30 +2000,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25">
-      <c r="A1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="20.25">
-      <c r="A2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>